--- a/AI_Card_Probabilities.xlsx
+++ b/AI_Card_Probabilities.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="0" windowWidth="24760" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="880" yWindow="0" windowWidth="24760" windowHeight="15560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="AI Card Reward Probabilities" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="FInal Table" sheetId="2" r:id="rId1"/>
+    <sheet name="Calculation sheet" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="27">
   <si>
     <t>rarity</t>
   </si>
@@ -152,7 +152,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -166,26 +166,75 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -515,10 +564,360 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>0.98464017553013872</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.72766027754884821</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.26753068968835719</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3.5156846561536911E-3</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1.2933481066408341E-3</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>1.8403064452833691</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.45995247773695858</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.27889159972696259</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3.1970806031634963E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.9391274073912192E-2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.19986120984522873</v>
+      </c>
+      <c r="I4" s="2">
+        <v>9.932608922103325E-3</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2.2540951754272216E-8</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1.1222479060666736E-9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>2.8098287048041333</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.32743244423067508</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.25496639614189714</v>
+      </c>
+      <c r="F5" s="2">
+        <v>8.632608022281503E-2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6.7230818877013265E-2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.21583878356794353</v>
+      </c>
+      <c r="I5" s="2">
+        <v>4.8116817714655653E-2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>7.2485535790679789E-5</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1.6173709209419123E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>3.9002024822506001</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.24593119671660599</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.21701724244776779</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.12627686134691232</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.11143893900675454</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.66705079639829201</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.3149507254777999</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.2224182959332551E-2</v>
+      </c>
+      <c r="K6" s="2">
+        <v>5.7742951645753738E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.9833666930233943</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.72860261436062512</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.26787714809065261</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3.5202375487222571E-3</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2">
+        <f>SUM(D10:J10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.8046205565576121</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.46904791493566106</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.28440660650123406</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3.2603020167937397E-2</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2">
+        <v>0.20381341180215259</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1.0129023606321915E-2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2.2986693044956628E-8</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" ref="K11:K13" si="0">SUM(D11:J11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.6208761747236133</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.35103874404923069</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.27334824344210551</v>
+      </c>
+      <c r="F12" s="2">
+        <v>9.2549774202464782E-2</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2">
+        <v>0.23139971873839868</v>
+      </c>
+      <c r="I12" s="2">
+        <v>5.158580817452206E-2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>7.7711393278332902E-5</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.1607287592431399</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2">
+        <v>0.67092491489013528</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.31677990615816359</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1.2295178951700948E-2</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L10" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -526,7 +925,7 @@
     <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -543,7 +942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -559,8 +958,12 @@
       <c r="E2">
         <v>33.33</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="H2">
+        <f>12*E2</f>
+        <v>399.96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -574,8 +977,11 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -609,8 +1015,41 @@
       <c r="K5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" t="s">
+        <v>13</v>
+      </c>
+      <c r="U5" t="s">
+        <v>14</v>
+      </c>
+      <c r="V5" t="s">
+        <v>15</v>
+      </c>
+      <c r="W5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -653,8 +1092,33 @@
         <f t="shared" si="1"/>
         <v>3.8075080737011419E-18</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>0.98464017553013872</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.72766027754884821</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.26753068968835719</v>
+      </c>
+      <c r="R6" s="2">
+        <v>3.5156846561536911E-3</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1.2933481066408341E-3</v>
+      </c>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -697,8 +1161,41 @@
         <f t="shared" ref="K7:K9" si="10">EXP(-6*E$2/$B7)/$C7</f>
         <v>1.1222479060666736E-9</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7">
+        <v>10</v>
+      </c>
+      <c r="O7">
+        <v>1.8403064452833691</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.45995247773695858</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.27889159972696259</v>
+      </c>
+      <c r="R7" s="2">
+        <v>3.1970806031634963E-2</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1.9391274073912192E-2</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0.19986120984522873</v>
+      </c>
+      <c r="U7" s="2">
+        <v>9.932608922103325E-3</v>
+      </c>
+      <c r="V7" s="2">
+        <v>2.2540951754272216E-8</v>
+      </c>
+      <c r="W7" s="2">
+        <v>1.1222479060666736E-9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -741,8 +1238,41 @@
         <f t="shared" si="10"/>
         <v>1.6173709209419123E-5</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8">
+        <v>20</v>
+      </c>
+      <c r="O8">
+        <v>2.8098287048041333</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.32743244423067508</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.25496639614189714</v>
+      </c>
+      <c r="R8" s="2">
+        <v>8.632608022281503E-2</v>
+      </c>
+      <c r="S8" s="2">
+        <v>6.7230818877013265E-2</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0.21583878356794353</v>
+      </c>
+      <c r="U8" s="2">
+        <v>4.8116817714655653E-2</v>
+      </c>
+      <c r="V8" s="2">
+        <v>7.2485535790679789E-5</v>
+      </c>
+      <c r="W8" s="2">
+        <v>1.6173709209419123E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -785,13 +1315,49 @@
         <f t="shared" si="10"/>
         <v>1.7284530343354698E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9">
+        <v>40</v>
+      </c>
+      <c r="O9">
+        <v>3.9002024822506001</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.24593119671660599</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.21701724244776779</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0.12627686134691232</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0.11143893900675454</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0.66705079639829201</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0.3149507254777999</v>
+      </c>
+      <c r="V9" s="2">
+        <v>1.2224182959332551E-2</v>
+      </c>
+      <c r="W9" s="2">
+        <v>5.7742951645753738E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -813,8 +1379,35 @@
       <c r="G12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R12" t="s">
+        <v>11</v>
+      </c>
+      <c r="T12" t="s">
+        <v>13</v>
+      </c>
+      <c r="U12" t="s">
+        <v>14</v>
+      </c>
+      <c r="V12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -845,8 +1438,30 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="M13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.9833666930233943</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.72860261436062512</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0.26787714809065261</v>
+      </c>
+      <c r="R13" s="2">
+        <v>3.5202375487222571E-3</v>
+      </c>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -877,8 +1492,36 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="M14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14">
+        <v>10</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1.8046205565576121</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.46904791493566106</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0.28440660650123406</v>
+      </c>
+      <c r="R14" s="2">
+        <v>3.2603020167937397E-2</v>
+      </c>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2">
+        <v>0.20381341180215259</v>
+      </c>
+      <c r="U14" s="2">
+        <v>1.0129023606321915E-2</v>
+      </c>
+      <c r="V14" s="2">
+        <v>2.2986693044956628E-8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -909,8 +1552,36 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="M15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15">
+        <v>20</v>
+      </c>
+      <c r="O15" s="1">
+        <v>2.6208761747236133</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.35103874404923069</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0.27334824344210551</v>
+      </c>
+      <c r="R15" s="2">
+        <v>9.2549774202464782E-2</v>
+      </c>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2">
+        <v>0.23139971873839868</v>
+      </c>
+      <c r="U15" s="2">
+        <v>5.158580817452206E-2</v>
+      </c>
+      <c r="V15" s="2">
+        <v>7.7711393278332902E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -941,13 +1612,38 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="M16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16">
+        <v>40</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1.1607287592431399</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2">
+        <v>0.67092491489013528</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0.31677990615816359</v>
+      </c>
+      <c r="V16" s="2">
+        <v>1.2295178951700948E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="M18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -969,8 +1665,41 @@
       <c r="K19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="M19" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" t="s">
+        <v>7</v>
+      </c>
+      <c r="O19" t="s">
+        <v>8</v>
+      </c>
+      <c r="P19" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>10</v>
+      </c>
+      <c r="R19" t="s">
+        <v>11</v>
+      </c>
+      <c r="S19" t="s">
+        <v>12</v>
+      </c>
+      <c r="T19" t="s">
+        <v>13</v>
+      </c>
+      <c r="U19" t="s">
+        <v>14</v>
+      </c>
+      <c r="V19" t="s">
+        <v>15</v>
+      </c>
+      <c r="W19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1001,8 +1730,49 @@
         <f t="shared" ref="K20:K23" si="18">EXP(-6*E$2/$B20)/$C20</f>
         <v>3.145207234299402E-17</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="M20" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20">
+        <v>5</v>
+      </c>
+      <c r="O20">
+        <v>0.98464017553013872</v>
+      </c>
+      <c r="P20" s="4">
+        <f>P6*40</f>
+        <v>29.106411101953928</v>
+      </c>
+      <c r="Q20" s="4">
+        <f t="shared" ref="Q20:W20" si="19">Q6*40</f>
+        <v>10.701227587534287</v>
+      </c>
+      <c r="R20" s="4">
+        <f t="shared" si="19"/>
+        <v>0.14062738624614765</v>
+      </c>
+      <c r="S20" s="4">
+        <f t="shared" si="19"/>
+        <v>5.1733924265633363E-2</v>
+      </c>
+      <c r="T20" s="4">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="4">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="4">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="4">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1010,7 +1780,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" ref="C21:C23" si="19">EXP(-6*B$2/$B21)+EXP(-6*C$2/$B21)+EXP(-6*D$2/$B21)+EXP(-6*E$2/$B21)</f>
+        <f t="shared" ref="C21:C23" si="20">EXP(-6*B$2/$B21)+EXP(-6*C$2/$B21)+EXP(-6*D$2/$B21)+EXP(-6*E$2/$B21)</f>
         <v>0.38608496040567108</v>
       </c>
       <c r="D21" s="2"/>
@@ -1018,7 +1788,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2">
-        <f t="shared" ref="H21:H23" si="20">EXP(-6*B$2/$B21)/$C21</f>
+        <f t="shared" ref="H21:H23" si="21">EXP(-6*B$2/$B21)/$C21</f>
         <v>0.95265527114509119</v>
       </c>
       <c r="I21" s="2">
@@ -1033,8 +1803,49 @@
         <f t="shared" si="18"/>
         <v>5.3492890595122188E-9</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="M21" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21">
+        <v>10</v>
+      </c>
+      <c r="O21">
+        <v>1.8403064452833691</v>
+      </c>
+      <c r="P21" s="4">
+        <f t="shared" ref="P21:W21" si="22">P7*40</f>
+        <v>18.398099109478345</v>
+      </c>
+      <c r="Q21" s="4">
+        <f t="shared" si="22"/>
+        <v>11.155663989078503</v>
+      </c>
+      <c r="R21" s="4">
+        <f t="shared" si="22"/>
+        <v>1.2788322412653985</v>
+      </c>
+      <c r="S21" s="4">
+        <f t="shared" si="22"/>
+        <v>0.77565096295648772</v>
+      </c>
+      <c r="T21" s="4">
+        <f t="shared" si="22"/>
+        <v>7.9944483938091491</v>
+      </c>
+      <c r="U21" s="4">
+        <f t="shared" si="22"/>
+        <v>0.39730435688413301</v>
+      </c>
+      <c r="V21" s="4">
+        <f t="shared" si="22"/>
+        <v>9.0163807017088869E-7</v>
+      </c>
+      <c r="W21" s="4">
+        <f t="shared" si="22"/>
+        <v>4.4889916242666945E-8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1042,7 +1853,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.74191914256922942</v>
       </c>
       <c r="D22" s="2"/>
@@ -1050,7 +1861,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.81743410417884443</v>
       </c>
       <c r="I22" s="2">
@@ -1065,8 +1876,49 @@
         <f t="shared" si="18"/>
         <v>6.1253780624133522E-5</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="M22" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22">
+        <v>20</v>
+      </c>
+      <c r="O22">
+        <v>2.8098287048041333</v>
+      </c>
+      <c r="P22" s="4">
+        <f t="shared" ref="P22:W22" si="23">P8*40</f>
+        <v>13.097297769227003</v>
+      </c>
+      <c r="Q22" s="4">
+        <f t="shared" si="23"/>
+        <v>10.198655845675885</v>
+      </c>
+      <c r="R22" s="4">
+        <f t="shared" si="23"/>
+        <v>3.4530432089126011</v>
+      </c>
+      <c r="S22" s="4">
+        <f t="shared" si="23"/>
+        <v>2.6892327550805306</v>
+      </c>
+      <c r="T22" s="4">
+        <f t="shared" si="23"/>
+        <v>8.6335513427177411</v>
+      </c>
+      <c r="U22" s="4">
+        <f t="shared" si="23"/>
+        <v>1.9246727085862261</v>
+      </c>
+      <c r="V22" s="4">
+        <f t="shared" si="23"/>
+        <v>2.8994214316271916E-3</v>
+      </c>
+      <c r="W22" s="4">
+        <f t="shared" si="23"/>
+        <v>6.4694836837676491E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1074,7 +1926,7 @@
         <v>40</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.1674700760581087</v>
       </c>
       <c r="D23" s="2"/>
@@ -1082,7 +1934,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.66705079639829201</v>
       </c>
       <c r="I23" s="2">
@@ -1097,8 +1949,49 @@
         <f t="shared" si="18"/>
         <v>5.7742951645753738E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="M23" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23">
+        <v>40</v>
+      </c>
+      <c r="O23">
+        <v>3.9002024822506001</v>
+      </c>
+      <c r="P23" s="4">
+        <f t="shared" ref="P23:W23" si="24">P9*40</f>
+        <v>9.8372478686642388</v>
+      </c>
+      <c r="Q23" s="4">
+        <f t="shared" si="24"/>
+        <v>8.6806896979107115</v>
+      </c>
+      <c r="R23" s="4">
+        <f t="shared" si="24"/>
+        <v>5.0510744538764927</v>
+      </c>
+      <c r="S23" s="4">
+        <f t="shared" si="24"/>
+        <v>4.4575575602701818</v>
+      </c>
+      <c r="T23" s="4">
+        <f t="shared" si="24"/>
+        <v>26.68203185593168</v>
+      </c>
+      <c r="U23" s="4">
+        <f t="shared" si="24"/>
+        <v>12.598029019111996</v>
+      </c>
+      <c r="V23" s="4">
+        <f t="shared" si="24"/>
+        <v>0.48896731837330204</v>
+      </c>
+      <c r="W23" s="4">
+        <f t="shared" si="24"/>
+        <v>0.23097180658301494</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -1112,8 +2005,11 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="M25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1141,8 +2037,35 @@
       <c r="J26" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="M26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" t="s">
+        <v>7</v>
+      </c>
+      <c r="O26" t="s">
+        <v>8</v>
+      </c>
+      <c r="P26" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>10</v>
+      </c>
+      <c r="R26" t="s">
+        <v>11</v>
+      </c>
+      <c r="T26" t="s">
+        <v>13</v>
+      </c>
+      <c r="U26" t="s">
+        <v>14</v>
+      </c>
+      <c r="V26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1158,11 +2081,11 @@
         <v>0.64029944941394479</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" ref="E27:E30" si="21">EXP(-C$2/$B27)/$C27</f>
+        <f t="shared" ref="E27:E30" si="25">EXP(-C$2/$B27)/$C27</f>
         <v>0.23541171422166657</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" ref="F27:F30" si="22">EXP(-D$2/$B27)/$C27</f>
+        <f t="shared" ref="F27:F30" si="26">EXP(-D$2/$B27)/$C27</f>
         <v>3.0936015323402687E-3</v>
       </c>
       <c r="G27" s="2"/>
@@ -1171,16 +2094,53 @@
         <v>0.12089663890775557</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" ref="I27:I30" si="23">EXP(-6*C$2/$B27)/$C27</f>
+        <f t="shared" ref="I27:I30" si="27">EXP(-6*C$2/$B27)/$C27</f>
         <v>2.9859592429123504E-4</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" ref="J27:J30" si="24">EXP(-6*D$2/$B27)/$C27</f>
+        <f t="shared" ref="J27:J30" si="28">EXP(-6*D$2/$B27)/$C27</f>
         <v>1.5378065340482035E-15</v>
       </c>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="M27" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27">
+        <v>5</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0.9833666930233943</v>
+      </c>
+      <c r="P27" s="4">
+        <f>40*P13</f>
+        <v>29.144104574425004</v>
+      </c>
+      <c r="Q27" s="4">
+        <f t="shared" ref="Q27:V27" si="29">40*Q13</f>
+        <v>10.715085923626104</v>
+      </c>
+      <c r="R27" s="4">
+        <f t="shared" si="29"/>
+        <v>0.14080950194889028</v>
+      </c>
+      <c r="S27" s="4">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="4">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="4">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="4">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -1188,37 +2148,74 @@
         <v>10</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" ref="C28:C30" si="25">EXP(-B$2/$B28)+EXP(-C$2/$B28)+EXP(-D$2/$B28)+EXP(-6*B$2/$B28)+EXP(-6*C$2/$B28)+EXP(-6*D$2/$B28)</f>
+        <f t="shared" ref="C28:C30" si="30">EXP(-B$2/$B28)+EXP(-C$2/$B28)+EXP(-D$2/$B28)+EXP(-6*B$2/$B28)+EXP(-6*C$2/$B28)+EXP(-6*D$2/$B28)</f>
         <v>1.8046205565576121</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" ref="D28:D30" si="26">EXP(-B$2/$B28)/$C28</f>
+        <f t="shared" ref="D28:D30" si="31">EXP(-B$2/$B28)/$C28</f>
         <v>0.46904791493566106</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.28440660650123406</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>3.2603020167937397E-2</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2">
-        <f t="shared" ref="H28:H30" si="27">EXP(-6*B$2/$B28)/$C28</f>
+        <f t="shared" ref="H28:H30" si="32">EXP(-6*B$2/$B28)/$C28</f>
         <v>0.20381341180215259</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1.0129023606321915E-2</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2.2986693044956628E-8</v>
       </c>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="M28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N28">
+        <v>10</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1.8046205565576121</v>
+      </c>
+      <c r="P28" s="4">
+        <f t="shared" ref="P28:V28" si="33">40*P14</f>
+        <v>18.761916597426442</v>
+      </c>
+      <c r="Q28" s="4">
+        <f t="shared" si="33"/>
+        <v>11.376264260049362</v>
+      </c>
+      <c r="R28" s="4">
+        <f t="shared" si="33"/>
+        <v>1.3041208067174959</v>
+      </c>
+      <c r="S28" s="4">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="4">
+        <f t="shared" si="33"/>
+        <v>8.1525364720861031</v>
+      </c>
+      <c r="U28" s="4">
+        <f t="shared" si="33"/>
+        <v>0.40516094425287663</v>
+      </c>
+      <c r="V28" s="4">
+        <f t="shared" si="33"/>
+        <v>9.1946772179826519E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1226,37 +2223,74 @@
         <v>20</v>
       </c>
       <c r="C29" s="1">
+        <f t="shared" si="30"/>
+        <v>2.6208761747236133</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="31"/>
+        <v>0.35103874404923069</v>
+      </c>
+      <c r="E29" s="2">
         <f t="shared" si="25"/>
-        <v>2.6208761747236133</v>
-      </c>
-      <c r="D29" s="2">
+        <v>0.27334824344210551</v>
+      </c>
+      <c r="F29" s="2">
         <f t="shared" si="26"/>
-        <v>0.35103874404923069</v>
-      </c>
-      <c r="E29" s="2">
-        <f t="shared" si="21"/>
-        <v>0.27334824344210551</v>
-      </c>
-      <c r="F29" s="2">
-        <f t="shared" si="22"/>
         <v>9.2549774202464782E-2</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2">
+        <f t="shared" si="32"/>
+        <v>0.23139971873839868</v>
+      </c>
+      <c r="I29" s="2">
         <f t="shared" si="27"/>
-        <v>0.23139971873839868</v>
-      </c>
-      <c r="I29" s="2">
-        <f t="shared" si="23"/>
         <v>5.158580817452206E-2</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>7.7711393278332902E-5</v>
       </c>
       <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="M29" t="s">
+        <v>19</v>
+      </c>
+      <c r="N29">
+        <v>20</v>
+      </c>
+      <c r="O29" s="1">
+        <v>2.6208761747236133</v>
+      </c>
+      <c r="P29" s="4">
+        <f t="shared" ref="P29:V29" si="34">40*P15</f>
+        <v>14.041549761969227</v>
+      </c>
+      <c r="Q29" s="4">
+        <f t="shared" si="34"/>
+        <v>10.93392973768422</v>
+      </c>
+      <c r="R29" s="4">
+        <f t="shared" si="34"/>
+        <v>3.7019909680985914</v>
+      </c>
+      <c r="S29" s="4">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="4">
+        <f t="shared" si="34"/>
+        <v>9.2559887495359465</v>
+      </c>
+      <c r="U29" s="4">
+        <f t="shared" si="34"/>
+        <v>2.0634323269808825</v>
+      </c>
+      <c r="V29" s="4">
+        <f t="shared" si="34"/>
+        <v>3.1084557311333162E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -1264,37 +2298,74 @@
         <v>40</v>
       </c>
       <c r="C30" s="1">
+        <f t="shared" si="30"/>
+        <v>3.4588267389021135</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="31"/>
+        <v>0.27731411149013691</v>
+      </c>
+      <c r="E30" s="2">
         <f t="shared" si="25"/>
-        <v>3.4588267389021135</v>
-      </c>
-      <c r="D30" s="2">
+        <v>0.24471049045799517</v>
+      </c>
+      <c r="F30" s="2">
         <f t="shared" si="26"/>
-        <v>0.27731411149013691</v>
-      </c>
-      <c r="E30" s="2">
-        <f t="shared" si="21"/>
-        <v>0.24471049045799517</v>
-      </c>
-      <c r="F30" s="2">
-        <f t="shared" si="22"/>
         <v>0.14239086408600257</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2">
+        <f t="shared" si="32"/>
+        <v>0.22515202488949398</v>
+      </c>
+      <c r="I30" s="2">
         <f t="shared" si="27"/>
-        <v>0.22515202488949398</v>
-      </c>
-      <c r="I30" s="2">
-        <f t="shared" si="23"/>
         <v>0.10630643717783793</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>4.1260718985334805E-3</v>
       </c>
       <c r="K30" s="2"/>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="M30" t="s">
+        <v>20</v>
+      </c>
+      <c r="N30">
+        <v>40</v>
+      </c>
+      <c r="O30" s="1">
+        <v>1.1607287592431399</v>
+      </c>
+      <c r="P30" s="4">
+        <f t="shared" ref="P30:V30" si="35">40*P16</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="4">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="4">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="4">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="4">
+        <f t="shared" si="35"/>
+        <v>26.836996595605413</v>
+      </c>
+      <c r="U30" s="4">
+        <f t="shared" si="35"/>
+        <v>12.671196246326543</v>
+      </c>
+      <c r="V30" s="4">
+        <f t="shared" si="35"/>
+        <v>0.49180715806803788</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1335,11 +2406,11 @@
         <v>0.72860261436062512</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" ref="E34:E37" si="28">EXP(-C$2/$B34)/$C34</f>
+        <f t="shared" ref="E34:E37" si="36">EXP(-C$2/$B34)/$C34</f>
         <v>0.26787714809065261</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" ref="F34:F37" si="29">EXP(-D$2/$B34)/$C34</f>
+        <f t="shared" ref="F34:F37" si="37">EXP(-D$2/$B34)/$C34</f>
         <v>3.5202375487222571E-3</v>
       </c>
       <c r="G34" s="2"/>
@@ -1356,19 +2427,19 @@
         <v>10</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" ref="C35:C37" si="30">EXP(-B$2/$B35)+EXP(-C$2/$B35)+EXP(-D$2/$B35)</f>
+        <f t="shared" ref="C35:C37" si="38">EXP(-B$2/$B35)+EXP(-C$2/$B35)+EXP(-D$2/$B35)</f>
         <v>1.4185355982172212</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" ref="D35:D37" si="31">EXP(-B$2/$B35)/$C35</f>
+        <f t="shared" ref="D35:D37" si="39">EXP(-B$2/$B35)/$C35</f>
         <v>0.59670938844762234</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>0.36181397855503455</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>4.1476632997343103E-2</v>
       </c>
       <c r="G35" s="2"/>
@@ -1385,19 +2456,19 @@
         <v>20</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>1.8790024775067837</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>0.48963697051868721</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>0.38127246090199901</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>0.12909056857931384</v>
       </c>
       <c r="G36" s="2"/>
@@ -1414,19 +2485,19 @@
         <v>40</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>2.2980979796589738</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>0.41738057836824916</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>0.36830944336479832</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>0.21430997826695258</v>
       </c>
       <c r="G37" s="2"/>
@@ -1480,11 +2551,11 @@
         <v>0.99753624039174005</v>
       </c>
       <c r="I41" s="2">
-        <f t="shared" ref="I41:I44" si="32">EXP(-6*C$2/$B41)/$C41</f>
+        <f t="shared" ref="I41:I44" si="40">EXP(-6*C$2/$B41)/$C41</f>
         <v>2.4637596082472016E-3</v>
       </c>
       <c r="J41" s="2">
-        <f t="shared" ref="J41:J44" si="33">EXP(-6*D$2/$B41)/$C41</f>
+        <f t="shared" ref="J41:J44" si="41">EXP(-6*D$2/$B41)/$C41</f>
         <v>1.26886715981803E-14</v>
       </c>
       <c r="K41" s="2"/>
@@ -1497,7 +2568,7 @@
         <v>10</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" ref="C42:C44" si="34">EXP(-6*B$2/$B42)+EXP(-6*C$2/$B42)+EXP(-6*D$2/$B42)</f>
+        <f t="shared" ref="C42:C44" si="42">EXP(-6*B$2/$B42)+EXP(-6*C$2/$B42)+EXP(-6*D$2/$B42)</f>
         <v>0.38608495834039103</v>
       </c>
       <c r="D42" s="2"/>
@@ -1505,15 +2576,15 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2">
-        <f t="shared" ref="H42:H44" si="35">EXP(-6*B$2/$B42)/$C42</f>
+        <f t="shared" ref="H42:H44" si="43">EXP(-6*B$2/$B42)/$C42</f>
         <v>0.95265527624111968</v>
       </c>
       <c r="I42" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>4.734461631553686E-2</v>
       </c>
       <c r="J42" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>1.0744334349238199E-7</v>
       </c>
       <c r="K42" s="2"/>
@@ -1526,7 +2597,7 @@
         <v>20</v>
       </c>
       <c r="C43" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>0.74187369721682961</v>
       </c>
       <c r="D43" s="2"/>
@@ -1534,15 +2605,15 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>0.81748417817535812</v>
       </c>
       <c r="I43" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>0.1822412846090595</v>
       </c>
       <c r="J43" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>2.7453721558244116E-4</v>
       </c>
       <c r="K43" s="2"/>
@@ -1555,7 +2626,7 @@
         <v>40</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>1.1607287592431399</v>
       </c>
       <c r="D44" s="2"/>
@@ -1563,15 +2634,15 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>0.67092491489013528</v>
       </c>
       <c r="I44" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>0.31677990615816359</v>
       </c>
       <c r="J44" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>1.2295178951700948E-2</v>
       </c>
       <c r="K44" s="2"/>
@@ -1585,21 +2656,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>